--- a/NeuroVault_studies.xlsx
+++ b/NeuroVault_studies.xlsx
@@ -365,9 +365,6 @@
     <t>10.1523/jneurosci.3486-16.2017 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>10.3389/fnins.2016.00529</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t>10.1162/jocn_a_01207 </t>
+  </si>
+  <si>
+    <t>10.1101/357327</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1084,7 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
@@ -1113,7 +1113,7 @@
         <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
         <v>53</v>
@@ -1142,7 +1142,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
@@ -1171,7 +1171,7 @@
         <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
@@ -1200,7 +1200,7 @@
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
         <v>64</v>
@@ -1229,7 +1229,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
         <v>68</v>
@@ -1258,7 +1258,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
         <v>72</v>
